--- a/tests/fixtures/tc_small_B.xlsx
+++ b/tests/fixtures/tc_small_B.xlsx
@@ -440,7 +440,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/04/01 09:00:40</t>
+          <t>2025/04/01 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -450,31 +450,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/04/01 09:00:41</t>
+          <t>2025/04/01 09:01:07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000000000000</t>
+          <t>000000000001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/04/01 09:01:40</t>
+          <t>2025/04/01 09:02:14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,14 +484,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/04/01 09:03:14</t>
+          <t>2025/04/01 09:03:21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -501,14 +501,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/04/01 09:03:20</t>
+          <t>2025/04/01 09:04:28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -518,14 +518,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/04/01 09:04:10</t>
+          <t>2025/04/01 09:05:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -535,14 +535,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/04/01 09:06:05</t>
+          <t>2025/04/01 09:06:42</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,14 +552,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/04/01 09:05:50</t>
+          <t>2025/04/01 09:07:49</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -569,14 +569,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/04/01 09:06:40</t>
+          <t>2025/04/01 09:08:06</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -603,14 +603,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/04/01 09:08:20</t>
+          <t>2025/04/01 09:10:20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -627,7 +627,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/04/01 09:09:10</t>
+          <t>2025/04/01 09:11:27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -637,14 +637,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/04/01 09:12:12</t>
+          <t>2025/04/01 09:12:34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -654,14 +654,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/04/01 09:10:50</t>
+          <t>2025/04/01 09:13:41</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -671,14 +671,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/04/01 09:11:40</t>
+          <t>2025/04/01 09:14:48</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -688,14 +688,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/04/01 09:15:14</t>
+          <t>2025/04/01 09:15:05</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -705,14 +705,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/04/01 09:13:20</t>
+          <t>2025/04/01 09:16:12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -722,14 +722,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/04/01 09:14:10</t>
+          <t>2025/04/01 09:17:19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -739,14 +739,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/04/01 09:18:44</t>
+          <t>2025/04/01 09:18:26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -756,14 +756,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/04/01 09:15:50</t>
+          <t>2025/04/01 09:19:33</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -773,14 +773,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/04/01 09:16:40</t>
+          <t>2025/04/01 09:20:40</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -790,14 +790,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/04/01 09:21:48</t>
+          <t>2025/04/01 09:21:47</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -807,14 +807,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/04/01 09:18:20</t>
+          <t>2025/04/01 09:22:04</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/04/01 09:19:10</t>
+          <t>2025/04/01 09:23:11</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -841,14 +841,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/04/01 09:24:22</t>
+          <t>2025/04/01 09:24:18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -858,14 +858,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/04/01 09:20:50</t>
+          <t>2025/04/01 09:25:25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/04/01 09:21:40</t>
+          <t>2025/04/01 09:26:32</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -892,14 +892,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/04/01 09:27:46</t>
+          <t>2025/04/01 09:27:39</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -909,14 +909,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/04/01 09:23:20</t>
+          <t>2025/04/01 09:28:46</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/04/01 09:24:10</t>
+          <t>2025/04/01 09:29:03</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -943,14 +943,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/04/01 09:30:35</t>
+          <t>2025/04/01 09:30:10</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -967,7 +967,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/04/01 09:25:50</t>
+          <t>2025/04/01 09:31:17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -977,14 +977,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/04/01 09:26:40</t>
+          <t>2025/04/01 09:32:24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -994,14 +994,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/04/01 09:33:36</t>
+          <t>2025/04/01 09:33:31</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1011,14 +1011,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/04/01 09:28:20</t>
+          <t>2025/04/01 09:34:38</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1028,14 +1028,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/04/01 09:29:10</t>
+          <t>2025/04/01 09:35:45</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1045,14 +1045,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/04/01 09:36:14</t>
+          <t>2025/04/01 09:36:02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1062,14 +1062,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/04/01 09:30:50</t>
+          <t>2025/04/01 09:37:09</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1079,14 +1079,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/04/01 09:31:40</t>
+          <t>2025/04/01 09:38:16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1096,14 +1096,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/04/01 09:39:06</t>
+          <t>2025/04/01 09:39:23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1113,14 +1113,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/04/01 09:33:20</t>
+          <t>2025/04/01 09:40:30</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1130,14 +1130,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/04/01 09:34:10</t>
+          <t>2025/04/01 09:41:37</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1147,14 +1147,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/04/01 09:42:10</t>
+          <t>2025/04/01 09:42:44</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1171,7 +1171,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/04/01 09:35:50</t>
+          <t>2025/04/01 09:43:01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1181,14 +1181,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/04/01 09:36:40</t>
+          <t>2025/04/01 09:44:08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1198,14 +1198,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/04/01 09:45:44</t>
+          <t>2025/04/01 09:45:15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/04/01 09:38:20</t>
+          <t>2025/04/01 09:46:22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/04/01 09:39:10</t>
+          <t>2025/04/01 09:47:29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1249,14 +1249,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/04/01 09:48:10</t>
+          <t>2025/04/01 09:48:36</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1266,14 +1266,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/04/01 09:40:50</t>
+          <t>2025/04/01 09:49:43</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1290,7 +1290,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/04/01 09:41:40</t>
+          <t>2025/04/01 09:50:00</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1300,14 +1300,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/04/01 09:51:24</t>
+          <t>2025/04/01 09:51:07</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/04/01 09:43:20</t>
+          <t>2025/04/01 09:52:14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/04/01 09:44:10</t>
+          <t>2025/04/01 09:53:21</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/04/01 09:54:14</t>
+          <t>2025/04/01 09:54:28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1368,14 +1368,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/04/01 09:45:50</t>
+          <t>2025/04/01 09:55:35</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1385,14 +1385,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/04/01 09:46:40</t>
+          <t>2025/04/01 09:56:42</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1402,14 +1402,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/04/01 09:57:02</t>
+          <t>2025/04/01 09:57:49</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1419,14 +1419,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/04/01 09:48:20</t>
+          <t>2025/04/01 09:58:06</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1436,14 +1436,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/04/01 09:49:10</t>
+          <t>2025/04/01 09:59:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1460,7 +1460,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/04/01 10:00:13</t>
+          <t>2025/04/01 10:00:20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1470,14 +1470,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/04/01 09:50:50</t>
+          <t>2025/04/01 10:01:27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1487,14 +1487,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/04/01 09:51:40</t>
+          <t>2025/04/01 10:02:34</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
@@ -1521,14 +1521,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/04/01 09:53:20</t>
+          <t>2025/04/01 10:04:48</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1538,14 +1538,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/04/01 09:54:10</t>
+          <t>2025/04/01 10:05:05</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/04/01 10:06:09</t>
+          <t>2025/04/01 10:06:12</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1572,14 +1572,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/04/01 09:55:50</t>
+          <t>2025/04/01 10:07:19</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1589,14 +1589,14 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/04/01 09:56:40</t>
+          <t>2025/04/01 10:08:26</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1606,14 +1606,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/04/01 10:09:16</t>
+          <t>2025/04/01 10:09:33</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1630,7 +1630,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/04/01 09:58:20</t>
+          <t>2025/04/01 10:10:40</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1640,14 +1640,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/04/01 09:59:10</t>
+          <t>2025/04/01 10:11:47</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1657,14 +1657,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/04/01 10:12:23</t>
+          <t>2025/04/01 10:12:04</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1674,14 +1674,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/04/01 10:00:50</t>
+          <t>2025/04/01 10:13:11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1691,14 +1691,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/04/01 10:01:40</t>
+          <t>2025/04/01 10:14:18</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1708,14 +1708,14 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/04/01 10:15:31</t>
+          <t>2025/04/01 10:15:25</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1725,14 +1725,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/04/01 10:03:20</t>
+          <t>2025/04/01 10:16:32</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1742,14 +1742,14 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/04/01 10:04:10</t>
+          <t>2025/04/01 10:17:39</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1766,7 +1766,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/04/01 10:18:40</t>
+          <t>2025/04/01 10:18:46</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1776,14 +1776,14 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/04/01 10:05:50</t>
+          <t>2025/04/01 10:19:03</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/04/01 10:06:40</t>
+          <t>2025/04/01 10:20:10</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1810,14 +1810,14 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/04/01 10:21:04</t>
+          <t>2025/04/01 10:21:17</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1834,7 +1834,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/04/01 10:08:20</t>
+          <t>2025/04/01 10:22:24</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1844,14 +1844,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/04/01 10:09:10</t>
+          <t>2025/04/01 10:23:31</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1861,14 +1861,14 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/04/01 10:24:16</t>
+          <t>2025/04/01 10:24:38</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1885,7 +1885,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/04/01 10:10:50</t>
+          <t>2025/04/01 10:25:45</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1895,14 +1895,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/04/01 10:11:40</t>
+          <t>2025/04/01 10:26:02</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1912,14 +1912,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/04/01 10:27:46</t>
+          <t>2025/04/01 10:27:09</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1929,14 +1929,14 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/04/01 10:13:20</t>
+          <t>2025/04/01 10:28:16</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1946,14 +1946,14 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/04/01 10:14:10</t>
+          <t>2025/04/01 10:29:23</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1963,14 +1963,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/04/01 10:30:49</t>
+          <t>2025/04/01 10:30:30</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1987,7 +1987,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/04/01 10:15:50</t>
+          <t>2025/04/01 10:31:37</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1997,14 +1997,14 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/04/01 10:16:40</t>
+          <t>2025/04/01 10:32:44</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2014,14 +2014,14 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/04/01 10:33:10</t>
+          <t>2025/04/01 10:33:01</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2031,31 +2031,31 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/04/01 10:33:11</t>
+          <t>2025/04/01 10:34:08</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>000000000093</t>
+          <t>000000000094</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/04/01 10:19:10</t>
+          <t>2025/04/01 10:35:15</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2065,14 +2065,14 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/04/01 10:36:48</t>
+          <t>2025/04/01 10:36:22</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2082,14 +2082,14 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/04/01 10:20:50</t>
+          <t>2025/04/01 10:37:29</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2099,14 +2099,14 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/04/01 10:21:40</t>
+          <t>2025/04/01 10:38:36</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2116,14 +2116,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/04/01 10:39:19</t>
+          <t>2025/04/01 10:39:43</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2133,14 +2133,14 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/04/01 10:23:20</t>
+          <t>2025/04/01 10:40:00</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2150,14 +2150,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/04/01 10:24:10</t>
+          <t>2025/04/01 10:41:07</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2167,14 +2167,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/04/01 10:42:09</t>
+          <t>2025/04/01 10:42:14</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2184,14 +2184,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/04/01 10:25:50</t>
+          <t>2025/04/01 10:43:21</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2201,14 +2201,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/04/01 10:26:40</t>
+          <t>2025/04/01 10:44:28</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2218,14 +2218,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/04/01 10:45:00</t>
+          <t>2025/04/01 10:45:35</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2242,7 +2242,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/04/01 10:28:20</t>
+          <t>2025/04/01 10:46:42</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/04/01 10:29:10</t>
+          <t>2025/04/01 10:47:49</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2269,14 +2269,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/04/01 10:48:23</t>
+          <t>2025/04/01 10:48:06</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2286,14 +2286,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/04/01 10:30:50</t>
+          <t>2025/04/01 10:49:13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2303,14 +2303,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/04/01 10:31:40</t>
+          <t>2025/04/01 10:50:20</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2320,14 +2320,14 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/04/01 10:51:15</t>
+          <t>2025/04/01 10:51:27</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/04/01 10:33:20</t>
+          <t>2025/04/01 10:52:34</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2361,7 +2361,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/04/01 10:34:10</t>
+          <t>2025/04/01 10:53:41</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2371,14 +2371,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/04/01 10:54:04</t>
+          <t>2025/04/01 10:54:48</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2388,14 +2388,14 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/04/01 10:35:50</t>
+          <t>2025/04/01 10:55:05</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/04/01 10:36:40</t>
+          <t>2025/04/01 10:56:12</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2429,7 +2429,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/04/01 10:57:42</t>
+          <t>2025/04/01 10:57:19</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2439,14 +2439,14 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/04/01 10:38:20</t>
+          <t>2025/04/01 10:58:26</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2456,14 +2456,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/04/01 10:39:10</t>
+          <t>2025/04/01 10:59:33</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2473,14 +2473,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/04/01 11:00:33</t>
+          <t>2025/04/01 11:00:40</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2490,14 +2490,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/04/01 10:40:50</t>
+          <t>2025/04/01 11:01:47</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2507,14 +2507,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/04/01 10:41:40</t>
+          <t>2025/04/01 11:02:04</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2524,14 +2524,14 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/04/01 11:03:48</t>
+          <t>2025/04/01 11:03:11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/04/01 10:43:20</t>
+          <t>2025/04/01 11:04:18</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2558,14 +2558,14 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/04/01 10:44:10</t>
+          <t>2025/04/01 11:05:25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2575,14 +2575,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/04/01 11:06:42</t>
+          <t>2025/04/01 11:06:32</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2599,7 +2599,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/04/01 10:45:50</t>
+          <t>2025/04/01 11:07:39</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2609,14 +2609,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/04/01 10:46:40</t>
+          <t>2025/04/01 11:08:46</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2626,14 +2626,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/04/01 11:09:07</t>
+          <t>2025/04/01 11:09:03</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2643,14 +2643,14 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/04/01 10:48:20</t>
+          <t>2025/04/01 11:10:10</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2660,14 +2660,14 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/04/01 10:49:10</t>
+          <t>2025/04/01 11:11:17</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2677,14 +2677,14 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/04/01 11:12:37</t>
+          <t>2025/04/01 11:12:24</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2694,14 +2694,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/04/01 10:50:50</t>
+          <t>2025/04/01 11:13:31</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2711,14 +2711,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/04/01 10:51:40</t>
+          <t>2025/04/01 11:14:38</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2728,14 +2728,14 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/04/01 11:15:04</t>
+          <t>2025/04/01 11:15:45</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2745,14 +2745,14 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/04/01 10:53:20</t>
+          <t>2025/04/01 11:16:02</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2762,14 +2762,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/04/01 10:54:10</t>
+          <t>2025/04/01 11:17:09</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2779,14 +2779,14 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/04/01 11:18:02</t>
+          <t>2025/04/01 11:18:16</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2796,14 +2796,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/04/01 10:55:50</t>
+          <t>2025/04/01 11:19:23</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2813,14 +2813,14 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/04/01 10:56:40</t>
+          <t>2025/04/01 11:20:30</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2830,14 +2830,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/04/01 11:21:17</t>
+          <t>2025/04/01 11:21:37</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2847,14 +2847,14 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/04/01 10:58:20</t>
+          <t>2025/04/01 11:22:44</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2864,14 +2864,14 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/04/01 10:59:10</t>
+          <t>2025/04/01 11:23:01</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/01 11:24:46</t>
+          <t>2025/04/01 11:24:08</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2898,14 +2898,14 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/01 11:00:50</t>
+          <t>2025/04/01 11:25:15</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2915,14 +2915,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/01 11:01:40</t>
+          <t>2025/04/01 11:26:22</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2932,14 +2932,14 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/01 11:27:26</t>
+          <t>2025/04/01 11:27:29</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2949,31 +2949,31 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/01 11:27:27</t>
+          <t>2025/04/01 11:28:36</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>000000000047</t>
+          <t>000000000048</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/01 11:04:10</t>
+          <t>2025/04/01 11:29:43</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2990,7 +2990,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/01 11:30:27</t>
+          <t>2025/04/01 11:30:00</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3000,14 +3000,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/01 11:05:50</t>
+          <t>2025/04/01 11:31:07</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3017,14 +3017,14 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/01 11:06:40</t>
+          <t>2025/04/01 11:32:14</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3034,14 +3034,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/01 11:33:41</t>
+          <t>2025/04/01 11:33:21</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3051,31 +3051,31 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/01 11:33:42</t>
+          <t>2025/04/01 11:34:28</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>000000000053</t>
+          <t>000000000054</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/01 11:09:10</t>
+          <t>2025/04/01 11:35:35</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3085,14 +3085,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/01 11:36:06</t>
+          <t>2025/04/01 11:36:42</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3102,14 +3102,14 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/01 11:10:50</t>
+          <t>2025/04/01 11:37:49</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3119,14 +3119,14 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/01 11:11:40</t>
+          <t>2025/04/01 11:38:06</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3136,14 +3136,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/01 11:39:08</t>
+          <t>2025/04/01 11:39:13</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3153,14 +3153,14 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/01 11:13:20</t>
+          <t>2025/04/01 11:40:20</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/01 11:14:10</t>
+          <t>2025/04/01 11:41:27</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3187,14 +3187,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/01 11:42:04</t>
+          <t>2025/04/01 11:42:34</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3204,14 +3204,14 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/04/01 11:15:50</t>
+          <t>2025/04/01 11:43:41</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3221,14 +3221,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/04/01 11:16:40</t>
+          <t>2025/04/01 11:44:48</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3238,14 +3238,14 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/04/01 11:45:03</t>
+          <t>2025/04/01 11:45:05</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3255,14 +3255,14 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/04/01 11:18:20</t>
+          <t>2025/04/01 11:46:12</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -3272,14 +3272,14 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/04/01 11:19:10</t>
+          <t>2025/04/01 11:47:19</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -3289,14 +3289,14 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/04/01 11:48:48</t>
+          <t>2025/04/01 11:48:26</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3306,14 +3306,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/04/01 11:20:50</t>
+          <t>2025/04/01 11:49:33</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3323,14 +3323,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/04/01 11:21:40</t>
+          <t>2025/04/01 11:50:40</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3340,14 +3340,14 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/04/01 11:51:30</t>
+          <t>2025/04/01 11:51:47</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3357,14 +3357,14 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/04/01 11:23:20</t>
+          <t>2025/04/01 11:52:04</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3374,14 +3374,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/04/01 11:24:10</t>
+          <t>2025/04/01 11:53:11</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3391,14 +3391,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/04/01 11:54:24</t>
+          <t>2025/04/01 11:54:18</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -3408,14 +3408,14 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/04/01 11:25:50</t>
+          <t>2025/04/01 11:55:25</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -3425,14 +3425,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/04/01 11:26:40</t>
+          <t>2025/04/01 11:56:32</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3442,14 +3442,14 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/04/01 11:57:18</t>
+          <t>2025/04/01 11:57:39</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3466,7 +3466,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/04/01 11:28:20</t>
+          <t>2025/04/01 11:58:46</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3476,14 +3476,14 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/04/01 11:29:10</t>
+          <t>2025/04/01 11:59:03</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3493,14 +3493,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/04/01 12:00:45</t>
+          <t>2025/04/01 12:00:10</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3510,14 +3510,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/04/01 11:30:50</t>
+          <t>2025/04/01 12:01:17</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3527,14 +3527,14 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/04/01 11:31:40</t>
+          <t>2025/04/01 12:02:24</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3544,14 +3544,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/04/01 12:03:03</t>
+          <t>2025/04/01 12:03:31</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -3561,14 +3561,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/04/01 11:33:20</t>
+          <t>2025/04/01 12:04:38</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3578,14 +3578,14 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/04/01 11:34:10</t>
+          <t>2025/04/01 12:05:45</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3595,14 +3595,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/04/01 12:06:03</t>
+          <t>2025/04/01 12:06:02</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3612,14 +3612,14 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/04/01 11:35:50</t>
+          <t>2025/04/01 12:07:09</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3629,14 +3629,14 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/04/01 11:36:40</t>
+          <t>2025/04/01 12:08:16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3646,14 +3646,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/04/01 12:09:10</t>
+          <t>2025/04/01 12:09:23</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3663,14 +3663,14 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/04/01 11:38:20</t>
+          <t>2025/04/01 12:10:30</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -3680,14 +3680,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/04/01 11:39:10</t>
+          <t>2025/04/01 12:11:37</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -3697,14 +3697,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/04/01 12:12:04</t>
+          <t>2025/04/01 12:12:44</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3714,31 +3714,31 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/04/01 12:12:05</t>
+          <t>2025/04/01 12:13:01</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>000000000092</t>
+          <t>000000000093</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/04/01 11:41:40</t>
+          <t>2025/04/01 12:14:08</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3755,7 +3755,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/04/01 12:15:07</t>
+          <t>2025/04/01 12:15:15</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3765,14 +3765,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/04/01 11:43:20</t>
+          <t>2025/04/01 12:16:22</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3782,14 +3782,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/04/01 11:44:10</t>
+          <t>2025/04/01 12:17:29</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3799,14 +3799,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/04/01 12:18:39</t>
+          <t>2025/04/01 12:18:36</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3816,14 +3816,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/04/01 11:45:50</t>
+          <t>2025/04/01 12:19:43</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -3833,155 +3833,155 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/04/01 11:46:40</t>
+          <t>2025/04/01 17:51:07</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>000000000000</t>
+          <t>000000000008</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/04/01 11:47:30</t>
+          <t>2025/04/01 11:04:19</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>000000000001</t>
+          <t>000000000024</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/04/01 11:48:20</t>
+          <t>2025/04/02 00:00:59</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>000000000002</t>
+          <t>000000000077</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/04/01 11:49:10</t>
+          <t>2025/04/02 01:28:47</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>000000000003</t>
+          <t>000000000064</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/04/01 11:50:00</t>
+          <t>2025/04/01 11:32:15</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>000000000004</t>
+          <t>000000000052</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/04/01 11:50:50</t>
+          <t>2025/04/01 20:37:05</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>000000000005</t>
+          <t>000000000083</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/04/01 11:51:40</t>
+          <t>2025/04/01 09:01:08</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>000000000006</t>
+          <t>000000000001</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/04/01 11:52:30</t>
+          <t>2025/04/01 23:46:18</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>000000000007</t>
+          <t>000000000062</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/04/01 11:53:20</t>
+          <t>2025/04/01 23:39:15</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>000000000008</t>
+          <t>000000000097</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3993,80 +3993,80 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/04/01 11:54:10</t>
+          <t>2025/04/02 03:28:54</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>000000000009</t>
+          <t>000000000014</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/04/01 11:55:00</t>
+          <t>2025/04/01 11:57:40</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>000000000010</t>
+          <t>000000000077</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/04/01 11:55:50</t>
+          <t>2025/04/01 09:11:08</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>000000000011</t>
+          <t>000000000085</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/04/01 11:56:40</t>
+          <t>2025/04/01 11:58:47</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>000000000012</t>
+          <t>000000000078</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/04/01 11:57:30</t>
+          <t>2025/04/01 15:03:50</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>000000000013</t>
+          <t>000000000048</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4078,12 +4078,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/04/01 11:58:20</t>
+          <t>2025/04/01 09:30:11</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>000000000014</t>
+          <t>000000000030</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4095,29 +4095,29 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/04/01 11:59:10</t>
+          <t>2025/04/01 11:08:47</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>000000000015</t>
+          <t>000000000028</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/04/01 12:00:00</t>
+          <t>2025/04/01 20:13:07</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>000000000016</t>
+          <t>000000000003</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4129,403 +4129,403 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/04/01 12:00:50</t>
+          <t>2025/04/01 11:41:28</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>000000000017</t>
+          <t>000000000061</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/04/01 12:01:40</t>
+          <t>2025/04/01 11:25:26</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>000000000018</t>
+          <t>000000000082</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/04/01 12:02:30</t>
+          <t>2025/04/01 20:36:23</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>000000000019</t>
+          <t>000000000067</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/04/01 12:03:20</t>
+          <t>2025/04/01 09:35:37</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>000000000020</t>
+          <t>000000000008</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/04/01 12:04:10</t>
+          <t>2025/04/01 09:49:44</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>000000000021</t>
+          <t>000000000049</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025/04/01 12:05:00</t>
+          <t>2025/04/01 09:44:09</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>000000000022</t>
+          <t>000000000044</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025/04/01 12:05:50</t>
+          <t>2025/04/01 14:44:28</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>000000000023</t>
+          <t>000000000009</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025/04/01 12:06:40</t>
+          <t>2025/04/01 22:45:26</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>000000000024</t>
+          <t>000000000095</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025/04/01 12:07:30</t>
+          <t>2025/04/01 14:25:34</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>000000000025</t>
+          <t>000000000076</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025/04/01 12:08:20</t>
+          <t>2025/04/01 14:56:54</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>000000000026</t>
+          <t>000000000068</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025/04/01 12:09:10</t>
+          <t>2025/04/01 10:12:05</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>000000000027</t>
+          <t>000000000072</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025/04/01 12:10:00</t>
+          <t>2025/04/02 02:45:04</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>000000000028</t>
+          <t>000000000020</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025/04/01 12:10:50</t>
+          <t>2025/04/02 06:02:02</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>000000000029</t>
+          <t>000000000013</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025/04/01 12:11:40</t>
+          <t>2025/04/02 02:29:40</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>000000000030</t>
+          <t>000000000017</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025/04/01 12:12:30</t>
+          <t>2025/04/01 19:08:38</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>000000000031</t>
+          <t>000000000049</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025/04/01 12:13:20</t>
+          <t>2025/04/01 09:57:50</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>000000000032</t>
+          <t>000000000057</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025/04/01 12:14:10</t>
+          <t>2025/04/01 15:20:26</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>000000000033</t>
+          <t>000000000088</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025/04/01 12:15:00</t>
+          <t>2025/04/01 10:48:07</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>000000000034</t>
+          <t>000000000008</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025/04/01 12:15:50</t>
+          <t>2025/04/01 10:09:34</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>000000000035</t>
+          <t>000000000069</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025/04/01 12:16:40</t>
+          <t>2025/04/01 09:58:07</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>000000000036</t>
+          <t>000000000058</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025/04/01 12:17:30</t>
+          <t>2025/04/01 12:18:37</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>000000000037</t>
+          <t>000000000098</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025/04/01 12:18:20</t>
+          <t>2025/04/01 20:48:19</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>000000000038</t>
+          <t>000000000068</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025/04/01 12:19:10</t>
+          <t>2025/04/01 21:22:00</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>000000000039</t>
+          <t>000000000013</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025/04/01 12:20:00</t>
+          <t>2025/04/02 05:51:21</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>000000000040</t>
+          <t>000000000051</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4537,250 +4537,250 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025/04/01 12:20:50</t>
+          <t>2025/04/01 11:47:20</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>000000000041</t>
+          <t>000000000067</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025/04/01 12:21:40</t>
+          <t>2025/04/01 21:23:53</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>000000000042</t>
+          <t>000000000070</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025/04/01 12:22:30</t>
+          <t>2025/04/01 15:09:14</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>000000000043</t>
+          <t>000000000015</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025/04/01 12:23:20</t>
+          <t>2025/04/01 10:46:01</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>000000000044</t>
+          <t>000000000077</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>210.200.1.1</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025/04/01 12:24:10</t>
+          <t>2025/04/01 09:30:11</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>000000000045</t>
+          <t>000000000030</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025/04/01 12:25:00</t>
+          <t>2025/04/01 09:15:06</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>000000000046</t>
+          <t>000000000015</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025/04/01 12:25:50</t>
+          <t>2025/04/01 22:01:45</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>000000000047</t>
+          <t>000000000019</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025/04/01 12:26:40</t>
+          <t>2025/04/01 09:04:29</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>000000000048</t>
+          <t>000000000004</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025/04/01 12:27:30</t>
+          <t>2025/04/02 03:04:03</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>000000000049</t>
+          <t>000000000028</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025/04/01 12:28:20</t>
+          <t>2025/04/01 09:58:07</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>000000000050</t>
+          <t>000000000058</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025/04/01 12:29:10</t>
+          <t>2025/04/01 09:02:15</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>000000000051</t>
+          <t>000000000002</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025/04/01 12:30:00</t>
+          <t>2025/04/01 12:06:03</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>000000000052</t>
+          <t>000000000086</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025/04/01 12:30:50</t>
+          <t>2025/04/01 11:34:29</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>000000000053</t>
+          <t>000000000054</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025/04/01 12:31:40</t>
+          <t>2025/04/02 06:02:32</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>000000000054</t>
+          <t>000000000041</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025/04/01 12:32:30</t>
+          <t>2025/04/01 10:57:13</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>000000000055</t>
+          <t>000000000099</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4792,12 +4792,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025/04/01 12:33:20</t>
+          <t>2025/04/02 06:30:33</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>000000000056</t>
+          <t>000000000033</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4809,199 +4809,199 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025/04/01 12:34:10</t>
+          <t>2025/04/01 16:48:04</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>000000000057</t>
+          <t>000000000019</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025/04/01 12:35:00</t>
+          <t>2025/04/01 11:45:06</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>000000000058</t>
+          <t>000000000065</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025/04/01 12:35:50</t>
+          <t>2025/04/01 10:05:06</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>000000000059</t>
+          <t>000000000065</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025/04/01 12:36:40</t>
+          <t>2025/04/01 11:17:10</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>000000000060</t>
+          <t>000000000037</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025/04/01 12:37:30</t>
+          <t>2025/04/01 11:10:11</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>000000000061</t>
+          <t>000000000030</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025/04/01 12:38:20</t>
+          <t>2025/04/01 09:58:00</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>000000000062</t>
+          <t>000000000085</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>192.168.1.10</t>
+          <t>220.135.10.10</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025/04/01 12:39:10</t>
+          <t>2025/04/01 11:59:04</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>000000000063</t>
+          <t>000000000079</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025/04/01 12:40:00</t>
+          <t>2025/04/01 09:03:22</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>000000000064</t>
+          <t>000000000003</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025/04/01 12:40:50</t>
+          <t>2025/04/01 09:49:44</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>000000000065</t>
+          <t>000000000049</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025/04/01 12:41:40</t>
+          <t>2025/04/01 10:47:50</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>000000000066</t>
+          <t>000000000007</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025/04/01 12:42:30</t>
+          <t>2025/04/01 23:13:25</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>000000000067</t>
+          <t>000000000083</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025/04/01 12:43:20</t>
+          <t>2025/04/02 04:34:16</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>000000000068</t>
+          <t>000000000066</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -5013,29 +5013,29 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025/04/01 12:44:10</t>
+          <t>2025/04/01 09:10:21</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>000000000069</t>
+          <t>000000000010</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025/04/01 12:45:00</t>
+          <t>2025/04/02 06:46:48</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>000000000070</t>
+          <t>000000000068</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5047,12 +5047,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025/04/01 12:45:50</t>
+          <t>2025/04/01 20:09:28</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>000000000071</t>
+          <t>000000000061</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5064,80 +5064,80 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025/04/01 12:46:40</t>
+          <t>2025/04/02 05:39:30</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>000000000072</t>
+          <t>000000000053</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025/04/01 12:47:30</t>
+          <t>2025/04/02 01:34:52</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>000000000073</t>
+          <t>000000000003</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>172.16.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025/04/01 12:48:20</t>
+          <t>2025/04/01 09:48:37</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>000000000074</t>
+          <t>000000000048</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025/04/01 12:49:10</t>
+          <t>2025/04/01 11:15:46</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>000000000075</t>
+          <t>000000000035</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025/04/01 12:50:00</t>
+          <t>2025/04/01 10:10:41</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>000000000076</t>
+          <t>000000000070</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5149,46 +5149,46 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025/04/01 12:50:50</t>
+          <t>2025/04/01 09:22:05</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>000000000077</t>
+          <t>000000000022</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025/04/01 12:51:40</t>
+          <t>2025/04/02 05:20:50</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>000000000078</t>
+          <t>000000000099</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025/04/01 12:52:30</t>
+          <t>2025/04/01 09:59:14</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>000000000079</t>
+          <t>000000000059</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5200,318 +5200,318 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025/04/01 12:53:20</t>
+          <t>2025/04/01 10:17:40</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>000000000080</t>
+          <t>000000000077</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025/04/01 12:54:10</t>
+          <t>2025/04/01 10:41:08</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>000000000081</t>
+          <t>000000000001</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025/04/01 12:55:00</t>
+          <t>2025/04/02 05:00:25</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>000000000082</t>
+          <t>000000000057</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>220.135.10.10</t>
+          <t>59.124.1.1</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025/04/01 12:55:50</t>
+          <t>2025/04/01 09:10:21</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>000000000083</t>
+          <t>000000000010</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025/04/01 12:56:40</t>
+          <t>2025/04/01 09:11:28</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>000000000084</t>
+          <t>000000000011</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025/04/01 12:57:30</t>
+          <t>2025/04/02 04:59:11</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>000000000085</t>
+          <t>000000000089</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>8.8.8.8</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2025/04/01 12:58:20</t>
+          <t>2025/04/01 10:42:15</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>000000000086</t>
+          <t>000000000002</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2025/04/01 12:59:10</t>
+          <t>2025/04/01 09:40:31</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>000000000087</t>
+          <t>000000000040</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>10.0.0.5</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2025/04/01 13:00:00</t>
+          <t>2025/04/01 18:25:35</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>000000000088</t>
+          <t>000000000025</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>192.168.0.100</t>
+          <t>1.1.1.1</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2025/04/01 13:00:50</t>
+          <t>2025/04/02 00:12:13</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>000000000089</t>
+          <t>000000000008</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>140.112.1.1</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2025/04/01 13:01:40</t>
+          <t>2025/04/01 09:17:20</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>000000000090</t>
+          <t>000000000017</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>140.112.1.1</t>
+          <t>192.168.1.10</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2025/04/01 13:02:30</t>
+          <t>2025/04/01 11:44:49</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>000000000091</t>
+          <t>000000000064</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>111.235.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2025/04/01 13:03:20</t>
+          <t>2025/04/01 09:26:33</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>000000000092</t>
+          <t>000000000026</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>172.16.1.1</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2025/04/01 13:04:10</t>
+          <t>2025/04/01 18:19:34</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>000000000093</t>
+          <t>000000000048</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>8.8.8.8</t>
+          <t>111.235.1.1</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2025/04/01 13:05:00</t>
+          <t>2025/04/01 09:45:16</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>000000000094</t>
+          <t>000000000045</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2025/04/01 13:05:50</t>
+          <t>2025/04/01 10:48:07</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>000000000095</t>
+          <t>000000000008</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>210.200.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2025/04/01 13:06:40</t>
+          <t>2025/04/01 09:21:48</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>000000000096</t>
+          <t>000000000021</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>1.1.1.1</t>
+          <t>10.0.0.5</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2025/04/01 13:07:30</t>
+          <t>2025/04/01 12:13:02</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>000000000097</t>
+          <t>000000000093</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2025/04/01 13:08:20</t>
+          <t>2025/04/01 11:42:35</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>000000000098</t>
+          <t>000000000062</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5523,17 +5523,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2025/04/01 13:09:10</t>
+          <t>2025/04/01 12:18:37</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>000000000099</t>
+          <t>000000000098</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>59.124.1.1</t>
+          <t>192.168.0.100</t>
         </is>
       </c>
     </row>
